--- a/_HackandSlash/_HackandSlash/Asset/Data/ItemData/ArmorItemData.xlsx
+++ b/_HackandSlash/_HackandSlash/Asset/Data/ItemData/ArmorItemData.xlsx
@@ -95,13 +95,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ドロップ率</t>
-    <rPh sb="4" eb="5">
-      <t>リツ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>石の頭装備</t>
     <rPh sb="0" eb="1">
       <t>イシ</t>
@@ -232,6 +225,13 @@
     <t>アダマンタイトの脚装備</t>
     <rPh sb="8" eb="9">
       <t>アシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ドロップ率(100~0.0001まで)</t>
+    <rPh sb="4" eb="5">
+      <t>リツ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -240,7 +240,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -253,6 +253,14 @@
       <sz val="6"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
@@ -279,18 +287,117 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="4">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="ＭＳ Ｐゴシック"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="ＭＳ Ｐゴシック"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="ＭＳ Ｐゴシック"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="ＭＳ Ｐゴシック"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -314,10 +421,10 @@
     <tableColumn id="2" name="名前"/>
     <tableColumn id="3" name="アイコンパス"/>
     <tableColumn id="4" name="装備箇所"/>
-    <tableColumn id="5" name="防御力"/>
-    <tableColumn id="6" name="最低レベル"/>
-    <tableColumn id="7" name="最高レベル"/>
-    <tableColumn id="8" name="ドロップ率" totalsRowFunction="sum"/>
+    <tableColumn id="5" name="最低レベル" dataDxfId="3"/>
+    <tableColumn id="6" name="最高レベル" dataDxfId="2"/>
+    <tableColumn id="7" name="ドロップ率(100~0.0001まで)" dataDxfId="1"/>
+    <tableColumn id="8" name="防御力" totalsRowFunction="sum" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -586,10 +693,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H25"/>
+  <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -597,11 +704,12 @@
     <col min="2" max="2" width="22.875" customWidth="1"/>
     <col min="3" max="3" width="13.875" customWidth="1"/>
     <col min="4" max="4" width="10.75" customWidth="1"/>
-    <col min="6" max="7" width="12.375" customWidth="1"/>
-    <col min="8" max="8" width="11.125" customWidth="1"/>
+    <col min="6" max="6" width="12.375" customWidth="1"/>
+    <col min="7" max="7" width="29.5" customWidth="1"/>
+    <col min="8" max="8" width="10.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -615,19 +723,19 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -641,19 +749,20 @@
         <v>5</v>
       </c>
       <c r="E2" s="1">
-        <v>5</v>
-      </c>
-      <c r="F2" s="1">
         <v>1</v>
       </c>
-      <c r="G2" s="1">
-        <v>10</v>
-      </c>
-      <c r="H2" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="F2" s="2">
+        <v>10</v>
+      </c>
+      <c r="G2" s="2">
+        <v>10</v>
+      </c>
+      <c r="H2" s="2">
+        <v>5</v>
+      </c>
+      <c r="I2" s="3"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -667,19 +776,20 @@
         <v>4</v>
       </c>
       <c r="E3" s="1">
-        <v>5</v>
-      </c>
-      <c r="F3" s="1">
         <v>1</v>
       </c>
-      <c r="G3" s="1">
-        <v>10</v>
-      </c>
-      <c r="H3" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="F3" s="2">
+        <v>10</v>
+      </c>
+      <c r="G3" s="2">
+        <v>10</v>
+      </c>
+      <c r="H3" s="2">
+        <v>5</v>
+      </c>
+      <c r="I3" s="3"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -693,19 +803,20 @@
         <v>3</v>
       </c>
       <c r="E4" s="1">
-        <v>5</v>
-      </c>
-      <c r="F4" s="1">
         <v>1</v>
       </c>
-      <c r="G4" s="1">
-        <v>10</v>
-      </c>
-      <c r="H4" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="F4" s="2">
+        <v>10</v>
+      </c>
+      <c r="G4" s="2">
+        <v>10</v>
+      </c>
+      <c r="H4" s="2">
+        <v>5</v>
+      </c>
+      <c r="I4" s="3"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
         <v>1</v>
       </c>
@@ -719,24 +830,25 @@
         <v>2</v>
       </c>
       <c r="E5" s="1">
-        <v>5</v>
-      </c>
-      <c r="F5" s="1">
         <v>1</v>
       </c>
-      <c r="G5" s="1">
-        <v>10</v>
-      </c>
-      <c r="H5" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="F5" s="2">
+        <v>10</v>
+      </c>
+      <c r="G5" s="2">
+        <v>10</v>
+      </c>
+      <c r="H5" s="2">
+        <v>5</v>
+      </c>
+      <c r="I5" s="3"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
         <v>2</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>6</v>
@@ -745,24 +857,25 @@
         <v>2</v>
       </c>
       <c r="E6" s="1">
-        <v>10</v>
-      </c>
-      <c r="F6" s="1">
-        <v>5</v>
-      </c>
-      <c r="G6" s="1">
+        <v>5</v>
+      </c>
+      <c r="F6" s="2">
         <v>20</v>
       </c>
-      <c r="H6" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="G6" s="2">
+        <v>10</v>
+      </c>
+      <c r="H6" s="2">
+        <v>10</v>
+      </c>
+      <c r="I6" s="3"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7" s="1">
         <v>2</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>12</v>
@@ -771,24 +884,25 @@
         <v>5</v>
       </c>
       <c r="E7" s="1">
-        <v>10</v>
-      </c>
-      <c r="F7" s="1">
-        <v>5</v>
-      </c>
-      <c r="G7" s="1">
+        <v>5</v>
+      </c>
+      <c r="F7" s="2">
         <v>20</v>
       </c>
-      <c r="H7" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="G7" s="2">
+        <v>10</v>
+      </c>
+      <c r="H7" s="2">
+        <v>10</v>
+      </c>
+      <c r="I7" s="3"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A8" s="1">
         <v>2</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>10</v>
@@ -797,24 +911,25 @@
         <v>4</v>
       </c>
       <c r="E8" s="1">
-        <v>10</v>
-      </c>
-      <c r="F8" s="1">
-        <v>5</v>
-      </c>
-      <c r="G8" s="1">
+        <v>5</v>
+      </c>
+      <c r="F8" s="2">
         <v>20</v>
       </c>
-      <c r="H8" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="G8" s="2">
+        <v>10</v>
+      </c>
+      <c r="H8" s="2">
+        <v>10</v>
+      </c>
+      <c r="I8" s="3"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A9" s="1">
         <v>2</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>8</v>
@@ -823,24 +938,25 @@
         <v>3</v>
       </c>
       <c r="E9" s="1">
-        <v>10</v>
-      </c>
-      <c r="F9" s="1">
-        <v>5</v>
-      </c>
-      <c r="G9" s="1">
+        <v>5</v>
+      </c>
+      <c r="F9" s="2">
         <v>20</v>
       </c>
-      <c r="H9" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="G9" s="2">
+        <v>10</v>
+      </c>
+      <c r="H9" s="2">
+        <v>10</v>
+      </c>
+      <c r="I9" s="3"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A10" s="1">
         <v>3</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>6</v>
@@ -849,24 +965,25 @@
         <v>2</v>
       </c>
       <c r="E10" s="1">
+        <v>10</v>
+      </c>
+      <c r="F10" s="2">
+        <v>30</v>
+      </c>
+      <c r="G10" s="2">
+        <v>10</v>
+      </c>
+      <c r="H10" s="2">
         <v>15</v>
       </c>
-      <c r="F10" s="1">
-        <v>10</v>
-      </c>
-      <c r="G10" s="1">
-        <v>30</v>
-      </c>
-      <c r="H10" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I10" s="3"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A11" s="1">
         <v>3</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>12</v>
@@ -875,24 +992,25 @@
         <v>5</v>
       </c>
       <c r="E11" s="1">
+        <v>10</v>
+      </c>
+      <c r="F11" s="2">
+        <v>30</v>
+      </c>
+      <c r="G11" s="2">
+        <v>10</v>
+      </c>
+      <c r="H11" s="2">
         <v>15</v>
       </c>
-      <c r="F11" s="1">
-        <v>10</v>
-      </c>
-      <c r="G11" s="1">
-        <v>30</v>
-      </c>
-      <c r="H11" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I11" s="3"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A12" s="1">
         <v>3</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>10</v>
@@ -901,24 +1019,25 @@
         <v>4</v>
       </c>
       <c r="E12" s="1">
+        <v>10</v>
+      </c>
+      <c r="F12" s="2">
+        <v>30</v>
+      </c>
+      <c r="G12" s="2">
+        <v>10</v>
+      </c>
+      <c r="H12" s="2">
         <v>15</v>
       </c>
-      <c r="F12" s="1">
-        <v>10</v>
-      </c>
-      <c r="G12" s="1">
-        <v>30</v>
-      </c>
-      <c r="H12" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I12" s="3"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A13" s="1">
         <v>3</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>8</v>
@@ -927,24 +1046,25 @@
         <v>3</v>
       </c>
       <c r="E13" s="1">
+        <v>10</v>
+      </c>
+      <c r="F13" s="2">
+        <v>30</v>
+      </c>
+      <c r="G13" s="2">
+        <v>10</v>
+      </c>
+      <c r="H13" s="2">
         <v>15</v>
       </c>
-      <c r="F13" s="1">
-        <v>10</v>
-      </c>
-      <c r="G13" s="1">
-        <v>30</v>
-      </c>
-      <c r="H13" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I13" s="3"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A14" s="1">
         <v>4</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>6</v>
@@ -955,22 +1075,23 @@
       <c r="E14" s="1">
         <v>20</v>
       </c>
-      <c r="F14" s="1">
+      <c r="F14" s="2">
+        <v>40</v>
+      </c>
+      <c r="G14" s="2">
+        <v>10</v>
+      </c>
+      <c r="H14" s="2">
         <v>20</v>
       </c>
-      <c r="G14" s="1">
-        <v>40</v>
-      </c>
-      <c r="H14" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I14" s="3"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A15" s="1">
         <v>4</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>12</v>
@@ -981,22 +1102,23 @@
       <c r="E15" s="1">
         <v>20</v>
       </c>
-      <c r="F15" s="1">
+      <c r="F15" s="2">
+        <v>40</v>
+      </c>
+      <c r="G15" s="2">
+        <v>10</v>
+      </c>
+      <c r="H15" s="2">
         <v>20</v>
       </c>
-      <c r="G15" s="1">
-        <v>40</v>
-      </c>
-      <c r="H15" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I15" s="3"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A16" s="1">
         <v>4</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>10</v>
@@ -1007,22 +1129,23 @@
       <c r="E16" s="1">
         <v>20</v>
       </c>
-      <c r="F16" s="1">
+      <c r="F16" s="2">
+        <v>40</v>
+      </c>
+      <c r="G16" s="2">
+        <v>10</v>
+      </c>
+      <c r="H16" s="2">
         <v>20</v>
       </c>
-      <c r="G16" s="1">
-        <v>40</v>
-      </c>
-      <c r="H16" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I16" s="3"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A17" s="1">
         <v>4</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>8</v>
@@ -1033,22 +1156,23 @@
       <c r="E17" s="1">
         <v>20</v>
       </c>
-      <c r="F17" s="1">
+      <c r="F17" s="2">
+        <v>40</v>
+      </c>
+      <c r="G17" s="2">
+        <v>10</v>
+      </c>
+      <c r="H17" s="2">
         <v>20</v>
       </c>
-      <c r="G17" s="1">
-        <v>40</v>
-      </c>
-      <c r="H17" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I17" s="3"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A18" s="1">
         <v>5</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>12</v>
@@ -1057,24 +1181,25 @@
         <v>5</v>
       </c>
       <c r="E18" s="1">
+        <v>30</v>
+      </c>
+      <c r="F18" s="2">
+        <v>50</v>
+      </c>
+      <c r="G18" s="2">
+        <v>10</v>
+      </c>
+      <c r="H18" s="2">
         <v>25</v>
       </c>
-      <c r="F18" s="1">
-        <v>30</v>
-      </c>
-      <c r="G18" s="1">
-        <v>50</v>
-      </c>
-      <c r="H18" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I18" s="3"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A19" s="1">
         <v>5</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>10</v>
@@ -1083,24 +1208,25 @@
         <v>4</v>
       </c>
       <c r="E19" s="1">
+        <v>30</v>
+      </c>
+      <c r="F19" s="2">
+        <v>50</v>
+      </c>
+      <c r="G19" s="2">
+        <v>10</v>
+      </c>
+      <c r="H19" s="2">
         <v>25</v>
       </c>
-      <c r="F19" s="1">
-        <v>30</v>
-      </c>
-      <c r="G19" s="1">
-        <v>50</v>
-      </c>
-      <c r="H19" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I19" s="3"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A20" s="1">
         <v>5</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>8</v>
@@ -1109,24 +1235,25 @@
         <v>3</v>
       </c>
       <c r="E20" s="1">
+        <v>30</v>
+      </c>
+      <c r="F20" s="2">
+        <v>50</v>
+      </c>
+      <c r="G20" s="2">
+        <v>10</v>
+      </c>
+      <c r="H20" s="2">
         <v>25</v>
       </c>
-      <c r="F20" s="1">
-        <v>30</v>
-      </c>
-      <c r="G20" s="1">
-        <v>50</v>
-      </c>
-      <c r="H20" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I20" s="3"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A21" s="1">
         <v>5</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>6</v>
@@ -1135,24 +1262,25 @@
         <v>2</v>
       </c>
       <c r="E21" s="1">
+        <v>30</v>
+      </c>
+      <c r="F21" s="2">
+        <v>50</v>
+      </c>
+      <c r="G21" s="2">
+        <v>10</v>
+      </c>
+      <c r="H21" s="2">
         <v>25</v>
       </c>
-      <c r="F21" s="1">
-        <v>30</v>
-      </c>
-      <c r="G21" s="1">
-        <v>50</v>
-      </c>
-      <c r="H21" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I21" s="3"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A22" s="1">
         <v>6</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>12</v>
@@ -1161,24 +1289,25 @@
         <v>5</v>
       </c>
       <c r="E22" s="1">
+        <v>40</v>
+      </c>
+      <c r="F22" s="2">
+        <v>100</v>
+      </c>
+      <c r="G22" s="2">
+        <v>10</v>
+      </c>
+      <c r="H22" s="2">
         <v>30</v>
       </c>
-      <c r="F22" s="1">
-        <v>40</v>
-      </c>
-      <c r="G22" s="1">
-        <v>100</v>
-      </c>
-      <c r="H22" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I22" s="3"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A23" s="1">
         <v>6</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>10</v>
@@ -1187,24 +1316,25 @@
         <v>4</v>
       </c>
       <c r="E23" s="1">
+        <v>40</v>
+      </c>
+      <c r="F23" s="2">
+        <v>100</v>
+      </c>
+      <c r="G23" s="2">
+        <v>10</v>
+      </c>
+      <c r="H23" s="2">
         <v>30</v>
       </c>
-      <c r="F23" s="1">
-        <v>40</v>
-      </c>
-      <c r="G23" s="1">
-        <v>100</v>
-      </c>
-      <c r="H23" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I23" s="3"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A24" s="1">
         <v>6</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>8</v>
@@ -1213,24 +1343,25 @@
         <v>3</v>
       </c>
       <c r="E24" s="1">
+        <v>40</v>
+      </c>
+      <c r="F24" s="2">
+        <v>100</v>
+      </c>
+      <c r="G24" s="2">
+        <v>10</v>
+      </c>
+      <c r="H24" s="2">
         <v>30</v>
       </c>
-      <c r="F24" s="1">
-        <v>40</v>
-      </c>
-      <c r="G24" s="1">
-        <v>100</v>
-      </c>
-      <c r="H24" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I24" s="3"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A25" s="1">
         <v>6</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>6</v>
@@ -1239,17 +1370,18 @@
         <v>2</v>
       </c>
       <c r="E25" s="1">
+        <v>40</v>
+      </c>
+      <c r="F25" s="2">
+        <v>100</v>
+      </c>
+      <c r="G25" s="2">
+        <v>10</v>
+      </c>
+      <c r="H25" s="2">
         <v>30</v>
       </c>
-      <c r="F25" s="1">
-        <v>40</v>
-      </c>
-      <c r="G25" s="1">
-        <v>100</v>
-      </c>
-      <c r="H25" s="1">
-        <v>10</v>
-      </c>
+      <c r="I25" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
